--- a/GameBattle/GameBattle/Asset/Data/Stage.xlsx
+++ b/GameBattle/GameBattle/Asset/Data/Stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameBattle\GameBattle\GameBattle\Asset\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61745C76-8934-417A-9546-DFC1038A1037}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E24853F9-FD13-4B84-89EF-7CF9C82AF635}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8000" xr2:uid="{C7C0D58C-B99C-46F3-97B8-1FEB23E8D01E}"/>
   </bookViews>
@@ -386,7 +386,7 @@
   <dimension ref="A1:BH32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AZ11" sqref="AZ11"/>
+      <selection activeCell="AQ21" sqref="AQ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.1640625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5671,184 +5671,184 @@
     </row>
     <row r="30" spans="1:60" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:60" x14ac:dyDescent="0.55000000000000004">

--- a/GameBattle/GameBattle/Asset/Data/Stage.xlsx
+++ b/GameBattle/GameBattle/Asset/Data/Stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameBattle\GameBattle\GameBattle\Asset\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F425C576-8E9C-4ADE-8EDF-D641A840115A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8014798C-CDE8-49E3-BA37-1607413671F6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8000" xr2:uid="{C7C0D58C-B99C-46F3-97B8-1FEB23E8D01E}"/>
   </bookViews>
@@ -386,7 +386,7 @@
   <dimension ref="A1:DP60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BD23" sqref="BD23"/>
+      <selection activeCell="BL33" sqref="BL33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.1640625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7439,28 +7439,28 @@
         <v>0</v>
       </c>
       <c r="BE20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM20">
         <v>0</v>
@@ -8719,34 +8719,34 @@
     </row>
     <row r="24" spans="1:120" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -9049,66 +9049,66 @@
         <v>0</v>
       </c>
       <c r="DG24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DH24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DL24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:120" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -9411,34 +9411,34 @@
         <v>0</v>
       </c>
       <c r="DG25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DH25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:120" x14ac:dyDescent="0.55000000000000004">
@@ -9955,64 +9955,64 @@
         <v>0</v>
       </c>
       <c r="AY27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BK27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BM27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BP27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BQ27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BR27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BS27">
         <v>0</v>
@@ -10317,64 +10317,64 @@
         <v>0</v>
       </c>
       <c r="AY28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BK28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BM28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BP28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BQ28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BR28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BS28">
         <v>0</v>
@@ -11253,76 +11253,76 @@
     </row>
     <row r="31" spans="1:120" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -11541,76 +11541,76 @@
         <v>0</v>
       </c>
       <c r="CS31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CT31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CU31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CV31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CW31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CX31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CY31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CZ31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DA31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DB31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DC31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DD31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DE31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DF31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DG31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DH31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DI31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DJ31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DK31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DL31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DM31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DN31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DO31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DP31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:120" x14ac:dyDescent="0.55000000000000004">
@@ -11684,7 +11684,7 @@
         <v>2</v>
       </c>
       <c r="X32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -11723,34 +11723,34 @@
         <v>0</v>
       </c>
       <c r="AK32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU32">
         <v>0</v>
@@ -11837,34 +11837,34 @@
         <v>0</v>
       </c>
       <c r="BW32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG32">
         <v>0</v>
@@ -11903,7 +11903,7 @@
         <v>0</v>
       </c>
       <c r="CS32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CT32">
         <v>2</v>
@@ -11977,73 +11977,73 @@
     </row>
     <row r="33" spans="1:120" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X33">
         <v>0</v>
@@ -12268,73 +12268,73 @@
         <v>0</v>
       </c>
       <c r="CT33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CU33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CV33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CW33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CX33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CY33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CZ33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DA33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DB33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DC33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DD33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DE33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DF33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DG33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DH33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DI33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DJ33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DK33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DL33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DM33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DN33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DO33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DP33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:120" x14ac:dyDescent="0.55000000000000004">
@@ -22113,7 +22113,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:BH30 B30:DP30 B5:DO28 DH24:DP24">
+  <conditionalFormatting sqref="DH25:DP25 B30:DP30 CS31:CS32 CT31:DP31 DH23:DP23 B24:DP24 B25:DO28 A1:BH30 B5:DO23">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -22123,7 +22123,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:BH60 AW39:BU39">
+  <conditionalFormatting sqref="AW39:BU39 BC32:BO32 A31:BH60">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -22133,7 +22133,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI1:DP30">
+  <conditionalFormatting sqref="CS31:CS32 CT31:DP31 BI1:DP30">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>

--- a/GameBattle/GameBattle/Asset/Data/Stage.xlsx
+++ b/GameBattle/GameBattle/Asset/Data/Stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameBattle\GameBattle\GameBattle\Asset\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8014798C-CDE8-49E3-BA37-1607413671F6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{14EAFE59-0075-40EA-AF8A-A1216F0E6327}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8000" xr2:uid="{C7C0D58C-B99C-46F3-97B8-1FEB23E8D01E}"/>
   </bookViews>
@@ -385,8 +385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C37E21-3710-4B78-8220-CA831CD9F8E5}">
   <dimension ref="A1:DP60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BL33" sqref="BL33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="BI17" sqref="BI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.1640625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6003,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="BI16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BJ16">
         <v>0</v>
@@ -7645,7 +7645,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -7981,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="DM21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DN21">
         <v>0</v>
@@ -12881,7 +12881,7 @@
         <v>0</v>
       </c>
       <c r="BI35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BJ35">
         <v>0</v>
@@ -17793,7 +17793,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -18105,7 +18105,7 @@
         <v>0</v>
       </c>
       <c r="DI49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DJ49">
         <v>0</v>
